--- a/biology/Zoologie/Anserelle_de_Coromandel/Anserelle_de_Coromandel.xlsx
+++ b/biology/Zoologie/Anserelle_de_Coromandel/Anserelle_de_Coromandel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nettapus coromandelianus
-L'Anserelle de Coromandel (Nettapus coromandelianus), aussi appelée oie pygmée de Coromandel ou sarcelle de Coromandel[1], est une espèce d'oiseaux de la famille des Anatidae.
+L'Anserelle de Coromandel (Nettapus coromandelianus), aussi appelée oie pygmée de Coromandel ou sarcelle de Coromandel, est une espèce d'oiseaux de la famille des Anatidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure en moyenne 33 cm de long.
 Le mâle et la femelle se ressemble mais la femelle a des couleurs brunes et non vertes et les parties blanches de son corps sont tachetées.
@@ -548,7 +562,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré son nom, son aire s'étend depuis le sous-continent indien à travers l'Extrême-Orient et le nord-est de l'Australie.
 </t>
@@ -579,7 +595,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anserelle de Coromandel vit dans les cours d'eau, les lacs et les marais à eaux profondes des plaines.
 </t>
@@ -610,7 +628,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau aquatique vit en petits groupes de 5 à 15 oiseaux et parfois en bandes de plus de 500 individus.
 </t>
@@ -641,7 +661,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début de son existence l'anserelle de Coromandel mange essentiellement des crustacés, des vers et des insectes aquatiques. Adulte, il se nourrit surtout de graines, de grains dans les rizières, d'herbe et de plantes aquatiques.
 </t>
@@ -672,7 +694,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">A la saison des amours l'anserelle de Coromande vit en couple. 
 La période de nidification est variable : en juillet et août au nord de l'Inde ; de février à juillet au Sri Lanka ...
@@ -705,7 +729,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Nettapus coromandelianus albipennis  Gould, 1842 : nord-est de l'Australie ;
